--- a/Aplicacion_Sistema_Experto/Sitio_WEB/static/Calculos_sin_rec.xlsx
+++ b/Aplicacion_Sistema_Experto/Sitio_WEB/static/Calculos_sin_rec.xlsx
@@ -12,12 +12,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Diseno E" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Camara" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Chimenea" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name=" paila semicilindrica sin aleta" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name=" paila semiesféric" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name=" paila semiesféric1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name=" paila pirotubular circular sin aleta" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name=" paila pirotubular cuadrada sin aleta" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name=" paila plana sin aleta" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name=" paila plana sin aleta" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -60,7 +55,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -76,6 +70,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -552,43 +614,43 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[[4.84318000e+02 3.32830000e+01 2.77590000e+01 5.72770000e+02
-  2.03994000e+02]
- [1.00000000e+02 1.00000000e+02 1.00000000e+02 4.45738198e+01
+          <t>[[1.55607000e+02 2.44410000e+01 2.04570000e+01 1.36615000e+02
+  1.24327000e+02]
+ [1.00000000e+02 1.00000000e+02 9.66187337e+01 2.54925327e+01
   1.70000000e+01]
- [1.00000000e+02 1.00000000e+02 1.00000000e+02 1.00000000e+02
-  4.45738198e+01]
- [1.00000000e+02 1.00000000e+02 1.00000000e+02 7.22869099e+01
-  3.07869099e+01]
- [7.19999232e+01 7.19999232e+01 7.19999232e+01 1.61529623e+02
+ [1.00000000e+02 1.00000000e+02 1.00000000e+02 9.66187337e+01
+  2.54925327e+01]
+ [1.00000000e+02 1.00000000e+02 9.83093668e+01 6.10556332e+01
+  2.12462663e+01]
+ [7.19999232e+01 7.19999232e+01 7.45196304e+01 2.82435347e+02
   4.41176000e+02]
- [1.52571218e+02 1.52571218e+02 1.52571218e+02 1.06982663e+02
-  9.58267874e+01]
- [5.43106880e-02 5.43106880e-02 5.43106880e-02 1.66755162e-02
-  9.33003308e-04]
+ [1.52571218e+02 1.52571218e+02 1.47361279e+02 1.01223884e+02
+  9.53208773e+01]
+ [5.43106880e-02 5.43106880e-02 5.25364680e-02 8.12809916e-03
+  4.58569882e-04]
  [5.54600000e-02 5.54600000e-02 5.54600000e-02 5.54600000e-02
   5.54600000e-02]
- [1.36514880e+03 1.36514880e+03 1.36514880e+03 1.27940921e+03
-  1.08990500e+03]
- [1.67200000e+00 1.67200000e+00 1.67200000e+00 2.36704430e+00
-  3.40786430e+00]
- [2.10819366e+03 2.10819366e+03 2.10819366e+03 2.23814292e+03
-  2.26799582e+03]
- [1.56197893e-01 1.56197893e-01 1.56197893e-01 2.12466409e-01
-  4.03299545e-01]
- [1.79221865e+00 4.69632660e-01 4.12202616e-01 5.35043241e-01
-  1.52278522e+00]
- [2.70233769e+05 7.08702840e+04 6.73430952e+04 1.07051161e+06
-  1.33961111e+05]
- [6.63391482e+02 4.79542519e+02 4.74025539e+02 3.91482094e+02
-  1.07190508e+02]
- [7.60649893e+02 4.82164532e+02 4.95250215e+02 8.36728315e+02
-  1.42684584e+02]]</t>
+ [1.36514880e+03 1.36514880e+03 1.36251710e+03 1.23105449e+03
+  1.04413604e+03]
+ [1.67200000e+00 1.67200000e+00 1.71440108e+00 2.64872472e+00
+  3.64714364e+00]
+ [2.10819366e+03 2.10819366e+03 2.12369141e+03 2.25364888e+03
+  2.26933148e+03]
+ [1.56197893e-01 1.56197893e-01 1.55098376e-01 2.59000039e-01
+  4.51012799e-01]
+ [1.15515618e+00 6.80924399e-01 6.67341821e-01 2.98709748e-01
+  5.97735997e-01]
+ [1.34706460e+05 3.58938526e+04 3.06544552e+04 4.57350324e+05
+  2.07996508e+05]
+ [5.57598600e+02 4.13203537e+02 3.92210133e+02 2.11298289e+02
+  1.02704633e+02]
+ [5.95871952e+02 4.26640753e+02 4.02864326e+02 3.07013904e+02
+  1.75483673e+02]]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[484.318  33.283  27.759 572.77  203.994]</t>
+          <t>[155.607  24.441  20.457 136.615 124.327]</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -641,362 +703,6 @@
       </c>
       <c r="U3" t="n">
         <v>845.7838526341067</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:K4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 0</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="J1" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="K1" s="1" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Altura de la falca</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Altura del fondo</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Ancho del fondo</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Ancho de la falca</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Longitud de la falca</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Longitud del doblez</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Angulo</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Cantidad de tubos</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Lado del tubo</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>499</v>
-      </c>
-      <c r="D4" t="n">
-        <v>400</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1221</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1594</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1543</v>
-      </c>
-      <c r="H4" t="n">
-        <v>50</v>
-      </c>
-      <c r="I4" t="n">
-        <v>68</v>
-      </c>
-      <c r="J4" t="n">
-        <v>5</v>
-      </c>
-      <c r="K4" t="n">
-        <v>150</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 0</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Altura de la falca</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Altura del fondo</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Ancho del fondo</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Ancho de la falca</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Longitud de la falca</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Longitud del doblez</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Angulo</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>499</v>
-      </c>
-      <c r="D4" t="n">
-        <v>400</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1221</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1594</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1543</v>
-      </c>
-      <c r="H4" t="n">
-        <v>50</v>
-      </c>
-      <c r="I4" t="n">
-        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1045,7 +751,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Henry</t>
+          <t>Henry A.</t>
         </is>
       </c>
     </row>
@@ -1063,7 +769,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>hahernandez@agrosavia.co</t>
+          <t>s@s</t>
         </is>
       </c>
     </row>
@@ -1081,7 +787,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>12345678</t>
+          <t>12345</t>
         </is>
       </c>
     </row>
@@ -1938,7 +1644,7 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>2.745</v>
+        <v>2.773</v>
       </c>
     </row>
     <row r="53">
@@ -1972,7 +1678,7 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>39.863</v>
+        <v>39.464</v>
       </c>
     </row>
     <row r="55">
@@ -2374,7 +2080,7 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>205.909</v>
+        <v>207.993</v>
       </c>
     </row>
     <row r="80">
@@ -2702,7 +2408,7 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>671.778</v>
+        <v>678.576</v>
       </c>
     </row>
     <row r="100">
@@ -2718,7 +2424,7 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>0.672</v>
+        <v>0.679</v>
       </c>
     </row>
     <row r="101">
@@ -3547,7 +3253,7 @@
         <v>900</v>
       </c>
       <c r="G3" t="n">
-        <v>898</v>
+        <v>955</v>
       </c>
       <c r="H3" t="n">
         <v>1100</v>
@@ -3567,7 +3273,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3602,12 +3308,6 @@
       <c r="I1" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="K1" s="1" t="n">
-        <v>8</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -3623,42 +3323,32 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>Altura del fondo</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>Ancho del fondo</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Ancho de la falca</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Longitud de la falca</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>Longitud del doblez</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>Angulo</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Altura del casco</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Ancho del casco</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Longitud del fondo</t>
         </is>
       </c>
     </row>
@@ -3676,42 +3366,32 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>C</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>I</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>K</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>R</t>
         </is>
       </c>
     </row>
@@ -3723,493 +3403,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>499</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1373</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1620</v>
-      </c>
-      <c r="G4" t="n">
-        <v>50</v>
-      </c>
-      <c r="H4" t="n">
-        <v>68</v>
-      </c>
-      <c r="I4" t="n">
-        <v>160</v>
-      </c>
-      <c r="J4" t="n">
-        <v>400</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1200</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 0</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Altura de la falca</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Altura del fondo</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Ancho del fondo</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Ancho de la falca</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Longitud del doblez</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Angulo</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>499</v>
-      </c>
-      <c r="D4" t="n">
-        <v>350</v>
-      </c>
-      <c r="E4" t="n">
-        <v>900</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1273</v>
-      </c>
-      <c r="G4" t="n">
-        <v>50</v>
-      </c>
-      <c r="H4" t="n">
-        <v>68</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 0</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Altura de la falca</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Altura del fondo</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Ancho del fondo</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Ancho de la falca</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Longitud del doblez</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Angulo</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>499</v>
-      </c>
-      <c r="D4" t="n">
-        <v>300</v>
-      </c>
-      <c r="E4" t="n">
-        <v>900</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1273</v>
-      </c>
-      <c r="G4" t="n">
-        <v>50</v>
-      </c>
-      <c r="H4" t="n">
-        <v>68</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:K4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 0</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="J1" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="K1" s="1" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Altura de la falca</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Altura del fondo</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Ancho del fondo</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Ancho de la falca</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Longitud de la falca</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Longitud del doblez</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Angulo</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Cantidad de tubos</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Diametro del tubo</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>499</v>
+        <v>556</v>
       </c>
       <c r="D4" t="n">
         <v>400</v>
@@ -4218,7 +3412,7 @@
         <v>1200</v>
       </c>
       <c r="F4" t="n">
-        <v>1573</v>
+        <v>1616</v>
       </c>
       <c r="G4" t="n">
         <v>1540</v>
@@ -4228,12 +3422,6 @@
       </c>
       <c r="I4" t="n">
         <v>68</v>
-      </c>
-      <c r="J4" t="n">
-        <v>5</v>
-      </c>
-      <c r="K4" t="n">
-        <v>133</v>
       </c>
     </row>
   </sheetData>
